--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW15.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW15.xlsx
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="C100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="D100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="E100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="F100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="G100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="H100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="I100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="K100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
       <c r="L100" t="n">
-        <v>2.567400001188</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="C128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="D128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="E128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="F128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="H128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="I128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="J128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="K128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="L128" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="C164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="D164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="F164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="G164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="H164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="I164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="K164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
       <c r="L164" t="n">
-        <v>2.632733332256</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="G176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="I176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="K176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.356475</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>1.5791666665833333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="C221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="D221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="H221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
@@ -14429,37 +14429,37 @@
         <v>377.0</v>
       </c>
       <c r="B378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="C378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="D378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="E378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="F378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="G378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="H378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="I378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="J378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="K378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
       <c r="L378" t="n">
-        <v>0.3046166665523333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="379">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.6285833332699999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -19141,37 +19141,37 @@
         <v>501.0</v>
       </c>
       <c r="B502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="C502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="D502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="E502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="F502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="G502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="H502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="I502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="J502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="K502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
       <c r="L502" t="n">
-        <v>8.074361844202501</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="503">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="C521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="D521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="E521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="F521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="G521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="H521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="I521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="J521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="K521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
       <c r="L521" t="n">
-        <v>3.0726592115310005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="522">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="C596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="D596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="E596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="F596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="G596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="H596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="I596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="J596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="K596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
       <c r="L596" t="n">
-        <v>1.2380666666013331</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="597">
